--- a/groups.xlsx
+++ b/groups.xlsx
@@ -16,9 +16,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>group 0</t>
+  </si>
   <si>
     <t>group 1</t>
+  </si>
+  <si>
+    <t>group 2</t>
+  </si>
+  <si>
+    <t>group 3</t>
+  </si>
+  <si>
+    <t>group 4</t>
+  </si>
+  <si>
+    <t>group 5</t>
+  </si>
+  <si>
+    <t>group 6</t>
+  </si>
+  <si>
+    <t>group 7</t>
+  </si>
+  <si>
+    <t>group 8</t>
+  </si>
+  <si>
+    <t>group 9</t>
   </si>
 </sst>
 </file>
@@ -371,47 +398,47 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
